--- a/data/project_raw_data.xlsx
+++ b/data/project_raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyhirsch-santagata/Desktop/2025 STAT/CRSS 8030/Pulliam_HirschSantagata_FinalProj/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathanpulliam/Desktop/CRSS 8030/Pulliam_HirschSantagata_FinalProj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB6CEE1-EA27-0248-88D4-7AF1AEF82C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E98040E-C5F6-1845-81D7-A470DE948016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2800" windowWidth="27640" windowHeight="16940" xr2:uid="{DF50A3F9-E807-D040-B867-BECA3E97A576}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16140" xr2:uid="{DF50A3F9-E807-D040-B867-BECA3E97A576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,34 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="22">
-  <si>
-    <t>86pk</t>
-  </si>
-  <si>
-    <t>78pk</t>
-  </si>
-  <si>
-    <t>63pk</t>
-  </si>
-  <si>
-    <t>47pk</t>
-  </si>
-  <si>
-    <t>30pk</t>
-  </si>
-  <si>
-    <t>14pk</t>
-  </si>
-  <si>
-    <t>6pk</t>
-  </si>
-  <si>
-    <t>14inc</t>
-  </si>
-  <si>
-    <t>4inc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>mg/kg NO3</t>
   </si>
@@ -476,51 +449,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5E39A2-DC8A-8041-AA4E-A8D7DB6E5891}">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -7087,8 +7060,8 @@
       <c r="A162" s="1">
         <v>45328</v>
       </c>
-      <c r="B162" t="s">
-        <v>8</v>
+      <c r="B162">
+        <v>125</v>
       </c>
       <c r="C162">
         <v>101</v>
@@ -7128,8 +7101,8 @@
       <c r="A163" s="1">
         <v>45328</v>
       </c>
-      <c r="B163" t="s">
-        <v>8</v>
+      <c r="B163">
+        <v>125</v>
       </c>
       <c r="C163">
         <v>201</v>
@@ -7169,8 +7142,8 @@
       <c r="A164" s="1">
         <v>45328</v>
       </c>
-      <c r="B164" t="s">
-        <v>8</v>
+      <c r="B164">
+        <v>125</v>
       </c>
       <c r="C164">
         <v>301</v>
@@ -7210,8 +7183,8 @@
       <c r="A165" s="1">
         <v>45328</v>
       </c>
-      <c r="B165" t="s">
-        <v>8</v>
+      <c r="B165">
+        <v>125</v>
       </c>
       <c r="C165">
         <v>401</v>
@@ -7251,8 +7224,8 @@
       <c r="A166" s="1">
         <v>45328</v>
       </c>
-      <c r="B166" t="s">
-        <v>8</v>
+      <c r="B166">
+        <v>125</v>
       </c>
       <c r="C166">
         <v>102</v>
@@ -7292,8 +7265,8 @@
       <c r="A167" s="1">
         <v>45328</v>
       </c>
-      <c r="B167" t="s">
-        <v>8</v>
+      <c r="B167">
+        <v>125</v>
       </c>
       <c r="C167">
         <v>202</v>
@@ -7333,8 +7306,8 @@
       <c r="A168" s="1">
         <v>45328</v>
       </c>
-      <c r="B168" t="s">
-        <v>8</v>
+      <c r="B168">
+        <v>125</v>
       </c>
       <c r="C168">
         <v>302</v>
@@ -7374,8 +7347,8 @@
       <c r="A169" s="1">
         <v>45328</v>
       </c>
-      <c r="B169" t="s">
-        <v>8</v>
+      <c r="B169">
+        <v>125</v>
       </c>
       <c r="C169">
         <v>402</v>
@@ -7415,8 +7388,8 @@
       <c r="A170" s="1">
         <v>45328</v>
       </c>
-      <c r="B170" t="s">
-        <v>8</v>
+      <c r="B170">
+        <v>125</v>
       </c>
       <c r="C170">
         <v>103</v>
@@ -7456,8 +7429,8 @@
       <c r="A171" s="1">
         <v>45328</v>
       </c>
-      <c r="B171" t="s">
-        <v>8</v>
+      <c r="B171">
+        <v>125</v>
       </c>
       <c r="C171">
         <v>203</v>
@@ -7497,8 +7470,8 @@
       <c r="A172" s="1">
         <v>45328</v>
       </c>
-      <c r="B172" t="s">
-        <v>8</v>
+      <c r="B172">
+        <v>125</v>
       </c>
       <c r="C172">
         <v>303</v>
@@ -7538,8 +7511,8 @@
       <c r="A173" s="1">
         <v>45328</v>
       </c>
-      <c r="B173" t="s">
-        <v>8</v>
+      <c r="B173">
+        <v>125</v>
       </c>
       <c r="C173">
         <v>403</v>
@@ -7579,8 +7552,8 @@
       <c r="A174" s="1">
         <v>45328</v>
       </c>
-      <c r="B174" t="s">
-        <v>8</v>
+      <c r="B174">
+        <v>125</v>
       </c>
       <c r="C174">
         <v>104</v>
@@ -7620,8 +7593,8 @@
       <c r="A175" s="1">
         <v>45328</v>
       </c>
-      <c r="B175" t="s">
-        <v>8</v>
+      <c r="B175">
+        <v>125</v>
       </c>
       <c r="C175">
         <v>204</v>
@@ -7661,8 +7634,8 @@
       <c r="A176" s="1">
         <v>45328</v>
       </c>
-      <c r="B176" t="s">
-        <v>8</v>
+      <c r="B176">
+        <v>125</v>
       </c>
       <c r="C176">
         <v>304</v>
@@ -7702,8 +7675,8 @@
       <c r="A177" s="1">
         <v>45328</v>
       </c>
-      <c r="B177" t="s">
-        <v>8</v>
+      <c r="B177">
+        <v>125</v>
       </c>
       <c r="C177">
         <v>404</v>
@@ -7743,8 +7716,8 @@
       <c r="A178" s="1">
         <v>45337</v>
       </c>
-      <c r="B178" t="s">
-        <v>7</v>
+      <c r="B178">
+        <v>134</v>
       </c>
       <c r="C178">
         <v>101</v>
@@ -7784,8 +7757,8 @@
       <c r="A179" s="1">
         <v>45337</v>
       </c>
-      <c r="B179" t="s">
-        <v>7</v>
+      <c r="B179">
+        <v>134</v>
       </c>
       <c r="C179">
         <v>201</v>
@@ -7825,8 +7798,8 @@
       <c r="A180" s="1">
         <v>45337</v>
       </c>
-      <c r="B180" t="s">
-        <v>7</v>
+      <c r="B180">
+        <v>134</v>
       </c>
       <c r="C180">
         <v>301</v>
@@ -7866,8 +7839,8 @@
       <c r="A181" s="1">
         <v>45337</v>
       </c>
-      <c r="B181" t="s">
-        <v>7</v>
+      <c r="B181">
+        <v>134</v>
       </c>
       <c r="C181">
         <v>401</v>
@@ -7907,8 +7880,8 @@
       <c r="A182" s="1">
         <v>45337</v>
       </c>
-      <c r="B182" t="s">
-        <v>7</v>
+      <c r="B182">
+        <v>134</v>
       </c>
       <c r="C182">
         <v>102</v>
@@ -7948,8 +7921,8 @@
       <c r="A183" s="1">
         <v>45337</v>
       </c>
-      <c r="B183" t="s">
-        <v>7</v>
+      <c r="B183">
+        <v>134</v>
       </c>
       <c r="C183">
         <v>202</v>
@@ -7989,8 +7962,8 @@
       <c r="A184" s="1">
         <v>45337</v>
       </c>
-      <c r="B184" t="s">
-        <v>7</v>
+      <c r="B184">
+        <v>134</v>
       </c>
       <c r="C184">
         <v>302</v>
@@ -8030,8 +8003,8 @@
       <c r="A185" s="1">
         <v>45337</v>
       </c>
-      <c r="B185" t="s">
-        <v>7</v>
+      <c r="B185">
+        <v>134</v>
       </c>
       <c r="C185">
         <v>402</v>
@@ -8071,8 +8044,8 @@
       <c r="A186" s="1">
         <v>45337</v>
       </c>
-      <c r="B186" t="s">
-        <v>7</v>
+      <c r="B186">
+        <v>134</v>
       </c>
       <c r="C186">
         <v>103</v>
@@ -8112,8 +8085,8 @@
       <c r="A187" s="1">
         <v>45337</v>
       </c>
-      <c r="B187" t="s">
-        <v>7</v>
+      <c r="B187">
+        <v>134</v>
       </c>
       <c r="C187">
         <v>203</v>
@@ -8153,8 +8126,8 @@
       <c r="A188" s="1">
         <v>45337</v>
       </c>
-      <c r="B188" t="s">
-        <v>7</v>
+      <c r="B188">
+        <v>134</v>
       </c>
       <c r="C188">
         <v>303</v>
@@ -8194,8 +8167,8 @@
       <c r="A189" s="1">
         <v>45337</v>
       </c>
-      <c r="B189" t="s">
-        <v>7</v>
+      <c r="B189">
+        <v>134</v>
       </c>
       <c r="C189">
         <v>403</v>
@@ -8235,8 +8208,8 @@
       <c r="A190" s="1">
         <v>45337</v>
       </c>
-      <c r="B190" t="s">
-        <v>7</v>
+      <c r="B190">
+        <v>134</v>
       </c>
       <c r="C190">
         <v>104</v>
@@ -8276,8 +8249,8 @@
       <c r="A191" s="1">
         <v>45337</v>
       </c>
-      <c r="B191" t="s">
-        <v>7</v>
+      <c r="B191">
+        <v>134</v>
       </c>
       <c r="C191">
         <v>204</v>
@@ -8317,8 +8290,8 @@
       <c r="A192" s="1">
         <v>45337</v>
       </c>
-      <c r="B192" t="s">
-        <v>7</v>
+      <c r="B192">
+        <v>134</v>
       </c>
       <c r="C192">
         <v>304</v>
@@ -8358,8 +8331,8 @@
       <c r="A193" s="1">
         <v>45337</v>
       </c>
-      <c r="B193" t="s">
-        <v>7</v>
+      <c r="B193">
+        <v>134</v>
       </c>
       <c r="C193">
         <v>404</v>
@@ -8399,8 +8372,8 @@
       <c r="A194" s="1">
         <v>45348</v>
       </c>
-      <c r="B194" t="s">
-        <v>6</v>
+      <c r="B194">
+        <v>145</v>
       </c>
       <c r="C194">
         <v>101</v>
@@ -8440,8 +8413,8 @@
       <c r="A195" s="1">
         <v>45348</v>
       </c>
-      <c r="B195" t="s">
-        <v>6</v>
+      <c r="B195">
+        <v>145</v>
       </c>
       <c r="C195">
         <v>201</v>
@@ -8481,8 +8454,8 @@
       <c r="A196" s="1">
         <v>45348</v>
       </c>
-      <c r="B196" t="s">
-        <v>6</v>
+      <c r="B196">
+        <v>145</v>
       </c>
       <c r="C196">
         <v>301</v>
@@ -8522,8 +8495,8 @@
       <c r="A197" s="1">
         <v>45348</v>
       </c>
-      <c r="B197" t="s">
-        <v>6</v>
+      <c r="B197">
+        <v>145</v>
       </c>
       <c r="C197">
         <v>401</v>
@@ -8563,8 +8536,8 @@
       <c r="A198" s="1">
         <v>45348</v>
       </c>
-      <c r="B198" t="s">
-        <v>6</v>
+      <c r="B198">
+        <v>145</v>
       </c>
       <c r="C198">
         <v>102</v>
@@ -8604,8 +8577,8 @@
       <c r="A199" s="1">
         <v>45348</v>
       </c>
-      <c r="B199" t="s">
-        <v>6</v>
+      <c r="B199">
+        <v>145</v>
       </c>
       <c r="C199">
         <v>202</v>
@@ -8645,8 +8618,8 @@
       <c r="A200" s="1">
         <v>45348</v>
       </c>
-      <c r="B200" t="s">
-        <v>6</v>
+      <c r="B200">
+        <v>145</v>
       </c>
       <c r="C200">
         <v>302</v>
@@ -8686,8 +8659,8 @@
       <c r="A201" s="1">
         <v>45348</v>
       </c>
-      <c r="B201" t="s">
-        <v>6</v>
+      <c r="B201">
+        <v>145</v>
       </c>
       <c r="C201">
         <v>402</v>
@@ -8727,8 +8700,8 @@
       <c r="A202" s="1">
         <v>45348</v>
       </c>
-      <c r="B202" t="s">
-        <v>6</v>
+      <c r="B202">
+        <v>145</v>
       </c>
       <c r="C202">
         <v>103</v>
@@ -8768,8 +8741,8 @@
       <c r="A203" s="1">
         <v>45348</v>
       </c>
-      <c r="B203" t="s">
-        <v>6</v>
+      <c r="B203">
+        <v>145</v>
       </c>
       <c r="C203">
         <v>203</v>
@@ -8809,8 +8782,8 @@
       <c r="A204" s="1">
         <v>45348</v>
       </c>
-      <c r="B204" t="s">
-        <v>6</v>
+      <c r="B204">
+        <v>145</v>
       </c>
       <c r="C204">
         <v>303</v>
@@ -8850,8 +8823,8 @@
       <c r="A205" s="1">
         <v>45348</v>
       </c>
-      <c r="B205" t="s">
-        <v>6</v>
+      <c r="B205">
+        <v>145</v>
       </c>
       <c r="C205">
         <v>403</v>
@@ -8891,8 +8864,8 @@
       <c r="A206" s="1">
         <v>45348</v>
       </c>
-      <c r="B206" t="s">
-        <v>6</v>
+      <c r="B206">
+        <v>145</v>
       </c>
       <c r="C206">
         <v>104</v>
@@ -8932,8 +8905,8 @@
       <c r="A207" s="1">
         <v>45348</v>
       </c>
-      <c r="B207" t="s">
-        <v>6</v>
+      <c r="B207">
+        <v>145</v>
       </c>
       <c r="C207">
         <v>204</v>
@@ -8973,8 +8946,8 @@
       <c r="A208" s="1">
         <v>45348</v>
       </c>
-      <c r="B208" t="s">
-        <v>6</v>
+      <c r="B208">
+        <v>145</v>
       </c>
       <c r="C208">
         <v>304</v>
@@ -9014,8 +8987,8 @@
       <c r="A209" s="1">
         <v>45348</v>
       </c>
-      <c r="B209" t="s">
-        <v>6</v>
+      <c r="B209">
+        <v>145</v>
       </c>
       <c r="C209">
         <v>404</v>
@@ -9055,8 +9028,8 @@
       <c r="A210" s="1">
         <v>45356</v>
       </c>
-      <c r="B210" t="s">
-        <v>5</v>
+      <c r="B210">
+        <v>152</v>
       </c>
       <c r="C210">
         <v>101</v>
@@ -9096,8 +9069,8 @@
       <c r="A211" s="1">
         <v>45356</v>
       </c>
-      <c r="B211" t="s">
-        <v>5</v>
+      <c r="B211">
+        <v>152</v>
       </c>
       <c r="C211">
         <v>201</v>
@@ -9137,8 +9110,8 @@
       <c r="A212" s="1">
         <v>45356</v>
       </c>
-      <c r="B212" t="s">
-        <v>5</v>
+      <c r="B212">
+        <v>152</v>
       </c>
       <c r="C212">
         <v>301</v>
@@ -9178,8 +9151,8 @@
       <c r="A213" s="1">
         <v>45356</v>
       </c>
-      <c r="B213" t="s">
-        <v>5</v>
+      <c r="B213">
+        <v>152</v>
       </c>
       <c r="C213">
         <v>401</v>
@@ -9219,8 +9192,8 @@
       <c r="A214" s="1">
         <v>45356</v>
       </c>
-      <c r="B214" t="s">
-        <v>5</v>
+      <c r="B214">
+        <v>152</v>
       </c>
       <c r="C214">
         <v>102</v>
@@ -9260,8 +9233,8 @@
       <c r="A215" s="1">
         <v>45356</v>
       </c>
-      <c r="B215" t="s">
-        <v>5</v>
+      <c r="B215">
+        <v>152</v>
       </c>
       <c r="C215">
         <v>202</v>
@@ -9301,8 +9274,8 @@
       <c r="A216" s="1">
         <v>45356</v>
       </c>
-      <c r="B216" t="s">
-        <v>5</v>
+      <c r="B216">
+        <v>152</v>
       </c>
       <c r="C216">
         <v>302</v>
@@ -9342,8 +9315,8 @@
       <c r="A217" s="1">
         <v>45356</v>
       </c>
-      <c r="B217" t="s">
-        <v>5</v>
+      <c r="B217">
+        <v>152</v>
       </c>
       <c r="C217">
         <v>402</v>
@@ -9383,8 +9356,8 @@
       <c r="A218" s="1">
         <v>45356</v>
       </c>
-      <c r="B218" t="s">
-        <v>5</v>
+      <c r="B218">
+        <v>152</v>
       </c>
       <c r="C218">
         <v>103</v>
@@ -9424,8 +9397,8 @@
       <c r="A219" s="1">
         <v>45356</v>
       </c>
-      <c r="B219" t="s">
-        <v>5</v>
+      <c r="B219">
+        <v>152</v>
       </c>
       <c r="C219">
         <v>203</v>
@@ -9465,8 +9438,8 @@
       <c r="A220" s="1">
         <v>45356</v>
       </c>
-      <c r="B220" t="s">
-        <v>5</v>
+      <c r="B220">
+        <v>152</v>
       </c>
       <c r="C220">
         <v>303</v>
@@ -9506,8 +9479,8 @@
       <c r="A221" s="1">
         <v>45356</v>
       </c>
-      <c r="B221" t="s">
-        <v>5</v>
+      <c r="B221">
+        <v>152</v>
       </c>
       <c r="C221">
         <v>403</v>
@@ -9547,8 +9520,8 @@
       <c r="A222" s="1">
         <v>45356</v>
       </c>
-      <c r="B222" t="s">
-        <v>5</v>
+      <c r="B222">
+        <v>152</v>
       </c>
       <c r="C222">
         <v>104</v>
@@ -9588,8 +9561,8 @@
       <c r="A223" s="1">
         <v>45356</v>
       </c>
-      <c r="B223" t="s">
-        <v>5</v>
+      <c r="B223">
+        <v>152</v>
       </c>
       <c r="C223">
         <v>204</v>
@@ -9629,8 +9602,8 @@
       <c r="A224" s="1">
         <v>45356</v>
       </c>
-      <c r="B224" t="s">
-        <v>5</v>
+      <c r="B224">
+        <v>152</v>
       </c>
       <c r="C224">
         <v>304</v>
@@ -9670,8 +9643,8 @@
       <c r="A225" s="1">
         <v>45356</v>
       </c>
-      <c r="B225" t="s">
-        <v>5</v>
+      <c r="B225">
+        <v>152</v>
       </c>
       <c r="C225">
         <v>404</v>
@@ -9711,8 +9684,8 @@
       <c r="A226" s="1">
         <v>45372</v>
       </c>
-      <c r="B226" t="s">
-        <v>4</v>
+      <c r="B226">
+        <v>168</v>
       </c>
       <c r="C226">
         <v>101</v>
@@ -9752,8 +9725,8 @@
       <c r="A227" s="1">
         <v>45372</v>
       </c>
-      <c r="B227" t="s">
-        <v>4</v>
+      <c r="B227">
+        <v>168</v>
       </c>
       <c r="C227">
         <v>201</v>
@@ -9793,8 +9766,8 @@
       <c r="A228" s="1">
         <v>45372</v>
       </c>
-      <c r="B228" t="s">
-        <v>4</v>
+      <c r="B228">
+        <v>168</v>
       </c>
       <c r="C228">
         <v>301</v>
@@ -9834,8 +9807,8 @@
       <c r="A229" s="1">
         <v>45372</v>
       </c>
-      <c r="B229" t="s">
-        <v>4</v>
+      <c r="B229">
+        <v>168</v>
       </c>
       <c r="C229">
         <v>401</v>
@@ -9875,8 +9848,8 @@
       <c r="A230" s="1">
         <v>45372</v>
       </c>
-      <c r="B230" t="s">
-        <v>4</v>
+      <c r="B230">
+        <v>168</v>
       </c>
       <c r="C230">
         <v>102</v>
@@ -9916,8 +9889,8 @@
       <c r="A231" s="1">
         <v>45372</v>
       </c>
-      <c r="B231" t="s">
-        <v>4</v>
+      <c r="B231">
+        <v>168</v>
       </c>
       <c r="C231">
         <v>202</v>
@@ -9957,8 +9930,8 @@
       <c r="A232" s="1">
         <v>45372</v>
       </c>
-      <c r="B232" t="s">
-        <v>4</v>
+      <c r="B232">
+        <v>168</v>
       </c>
       <c r="C232">
         <v>302</v>
@@ -9998,8 +9971,8 @@
       <c r="A233" s="1">
         <v>45372</v>
       </c>
-      <c r="B233" t="s">
-        <v>4</v>
+      <c r="B233">
+        <v>168</v>
       </c>
       <c r="C233">
         <v>402</v>
@@ -10039,8 +10012,8 @@
       <c r="A234" s="1">
         <v>45372</v>
       </c>
-      <c r="B234" t="s">
-        <v>4</v>
+      <c r="B234">
+        <v>168</v>
       </c>
       <c r="C234">
         <v>103</v>
@@ -10080,8 +10053,8 @@
       <c r="A235" s="1">
         <v>45372</v>
       </c>
-      <c r="B235" t="s">
-        <v>4</v>
+      <c r="B235">
+        <v>168</v>
       </c>
       <c r="C235">
         <v>203</v>
@@ -10121,8 +10094,8 @@
       <c r="A236" s="1">
         <v>45372</v>
       </c>
-      <c r="B236" t="s">
-        <v>4</v>
+      <c r="B236">
+        <v>168</v>
       </c>
       <c r="C236">
         <v>303</v>
@@ -10162,8 +10135,8 @@
       <c r="A237" s="1">
         <v>45372</v>
       </c>
-      <c r="B237" t="s">
-        <v>4</v>
+      <c r="B237">
+        <v>168</v>
       </c>
       <c r="C237">
         <v>403</v>
@@ -10203,8 +10176,8 @@
       <c r="A238" s="1">
         <v>45372</v>
       </c>
-      <c r="B238" t="s">
-        <v>4</v>
+      <c r="B238">
+        <v>168</v>
       </c>
       <c r="C238">
         <v>104</v>
@@ -10244,8 +10217,8 @@
       <c r="A239" s="1">
         <v>45372</v>
       </c>
-      <c r="B239" t="s">
-        <v>4</v>
+      <c r="B239">
+        <v>168</v>
       </c>
       <c r="C239">
         <v>204</v>
@@ -10285,8 +10258,8 @@
       <c r="A240" s="1">
         <v>45372</v>
       </c>
-      <c r="B240" t="s">
-        <v>4</v>
+      <c r="B240">
+        <v>168</v>
       </c>
       <c r="C240">
         <v>304</v>
@@ -10326,8 +10299,8 @@
       <c r="A241" s="1">
         <v>45372</v>
       </c>
-      <c r="B241" t="s">
-        <v>4</v>
+      <c r="B241">
+        <v>168</v>
       </c>
       <c r="C241">
         <v>404</v>
@@ -10367,8 +10340,8 @@
       <c r="A242" s="1">
         <v>45389</v>
       </c>
-      <c r="B242" t="s">
-        <v>3</v>
+      <c r="B242">
+        <v>185</v>
       </c>
       <c r="C242">
         <v>101</v>
@@ -10408,8 +10381,8 @@
       <c r="A243" s="1">
         <v>45389</v>
       </c>
-      <c r="B243" t="s">
-        <v>3</v>
+      <c r="B243">
+        <v>185</v>
       </c>
       <c r="C243">
         <v>201</v>
@@ -10449,8 +10422,8 @@
       <c r="A244" s="1">
         <v>45389</v>
       </c>
-      <c r="B244" t="s">
-        <v>3</v>
+      <c r="B244">
+        <v>185</v>
       </c>
       <c r="C244">
         <v>301</v>
@@ -10490,8 +10463,8 @@
       <c r="A245" s="1">
         <v>45389</v>
       </c>
-      <c r="B245" t="s">
-        <v>3</v>
+      <c r="B245">
+        <v>185</v>
       </c>
       <c r="C245">
         <v>401</v>
@@ -10531,8 +10504,8 @@
       <c r="A246" s="1">
         <v>45389</v>
       </c>
-      <c r="B246" t="s">
-        <v>3</v>
+      <c r="B246">
+        <v>185</v>
       </c>
       <c r="C246">
         <v>102</v>
@@ -10572,8 +10545,8 @@
       <c r="A247" s="1">
         <v>45389</v>
       </c>
-      <c r="B247" t="s">
-        <v>3</v>
+      <c r="B247">
+        <v>185</v>
       </c>
       <c r="C247">
         <v>202</v>
@@ -10613,8 +10586,8 @@
       <c r="A248" s="1">
         <v>45389</v>
       </c>
-      <c r="B248" t="s">
-        <v>3</v>
+      <c r="B248">
+        <v>185</v>
       </c>
       <c r="C248">
         <v>302</v>
@@ -10654,8 +10627,8 @@
       <c r="A249" s="1">
         <v>45389</v>
       </c>
-      <c r="B249" t="s">
-        <v>3</v>
+      <c r="B249">
+        <v>185</v>
       </c>
       <c r="C249">
         <v>402</v>
@@ -10695,8 +10668,8 @@
       <c r="A250" s="1">
         <v>45389</v>
       </c>
-      <c r="B250" t="s">
-        <v>3</v>
+      <c r="B250">
+        <v>185</v>
       </c>
       <c r="C250">
         <v>103</v>
@@ -10736,8 +10709,8 @@
       <c r="A251" s="1">
         <v>45389</v>
       </c>
-      <c r="B251" t="s">
-        <v>3</v>
+      <c r="B251">
+        <v>185</v>
       </c>
       <c r="C251">
         <v>203</v>
@@ -10777,8 +10750,8 @@
       <c r="A252" s="1">
         <v>45389</v>
       </c>
-      <c r="B252" t="s">
-        <v>3</v>
+      <c r="B252">
+        <v>185</v>
       </c>
       <c r="C252">
         <v>303</v>
@@ -10818,8 +10791,8 @@
       <c r="A253" s="1">
         <v>45389</v>
       </c>
-      <c r="B253" t="s">
-        <v>3</v>
+      <c r="B253">
+        <v>185</v>
       </c>
       <c r="C253">
         <v>403</v>
@@ -10859,8 +10832,8 @@
       <c r="A254" s="1">
         <v>45389</v>
       </c>
-      <c r="B254" t="s">
-        <v>3</v>
+      <c r="B254">
+        <v>185</v>
       </c>
       <c r="C254">
         <v>104</v>
@@ -10900,8 +10873,8 @@
       <c r="A255" s="1">
         <v>45389</v>
       </c>
-      <c r="B255" t="s">
-        <v>3</v>
+      <c r="B255">
+        <v>185</v>
       </c>
       <c r="C255">
         <v>204</v>
@@ -10941,8 +10914,8 @@
       <c r="A256" s="1">
         <v>45389</v>
       </c>
-      <c r="B256" t="s">
-        <v>3</v>
+      <c r="B256">
+        <v>185</v>
       </c>
       <c r="C256">
         <v>304</v>
@@ -10982,8 +10955,8 @@
       <c r="A257" s="1">
         <v>45389</v>
       </c>
-      <c r="B257" t="s">
-        <v>3</v>
+      <c r="B257">
+        <v>185</v>
       </c>
       <c r="C257">
         <v>404</v>
@@ -11023,8 +10996,8 @@
       <c r="A258" s="1">
         <v>45405</v>
       </c>
-      <c r="B258" t="s">
-        <v>2</v>
+      <c r="B258">
+        <v>201</v>
       </c>
       <c r="C258">
         <v>101</v>
@@ -11064,8 +11037,8 @@
       <c r="A259" s="1">
         <v>45405</v>
       </c>
-      <c r="B259" t="s">
-        <v>2</v>
+      <c r="B259">
+        <v>201</v>
       </c>
       <c r="C259">
         <v>201</v>
@@ -11105,8 +11078,8 @@
       <c r="A260" s="1">
         <v>45405</v>
       </c>
-      <c r="B260" t="s">
-        <v>2</v>
+      <c r="B260">
+        <v>201</v>
       </c>
       <c r="C260">
         <v>301</v>
@@ -11146,8 +11119,8 @@
       <c r="A261" s="1">
         <v>45405</v>
       </c>
-      <c r="B261" t="s">
-        <v>2</v>
+      <c r="B261">
+        <v>201</v>
       </c>
       <c r="C261">
         <v>401</v>
@@ -11187,8 +11160,8 @@
       <c r="A262" s="1">
         <v>45405</v>
       </c>
-      <c r="B262" t="s">
-        <v>2</v>
+      <c r="B262">
+        <v>201</v>
       </c>
       <c r="C262">
         <v>102</v>
@@ -11228,8 +11201,8 @@
       <c r="A263" s="1">
         <v>45405</v>
       </c>
-      <c r="B263" t="s">
-        <v>2</v>
+      <c r="B263">
+        <v>201</v>
       </c>
       <c r="C263">
         <v>202</v>
@@ -11269,8 +11242,8 @@
       <c r="A264" s="1">
         <v>45405</v>
       </c>
-      <c r="B264" t="s">
-        <v>2</v>
+      <c r="B264">
+        <v>201</v>
       </c>
       <c r="C264">
         <v>302</v>
@@ -11310,8 +11283,8 @@
       <c r="A265" s="1">
         <v>45405</v>
       </c>
-      <c r="B265" t="s">
-        <v>2</v>
+      <c r="B265">
+        <v>201</v>
       </c>
       <c r="C265">
         <v>402</v>
@@ -11351,8 +11324,8 @@
       <c r="A266" s="1">
         <v>45405</v>
       </c>
-      <c r="B266" t="s">
-        <v>2</v>
+      <c r="B266">
+        <v>201</v>
       </c>
       <c r="C266">
         <v>103</v>
@@ -11392,8 +11365,8 @@
       <c r="A267" s="1">
         <v>45405</v>
       </c>
-      <c r="B267" t="s">
-        <v>2</v>
+      <c r="B267">
+        <v>201</v>
       </c>
       <c r="C267">
         <v>203</v>
@@ -11433,8 +11406,8 @@
       <c r="A268" s="1">
         <v>45405</v>
       </c>
-      <c r="B268" t="s">
-        <v>2</v>
+      <c r="B268">
+        <v>201</v>
       </c>
       <c r="C268">
         <v>303</v>
@@ -11474,8 +11447,8 @@
       <c r="A269" s="1">
         <v>45405</v>
       </c>
-      <c r="B269" t="s">
-        <v>2</v>
+      <c r="B269">
+        <v>201</v>
       </c>
       <c r="C269">
         <v>403</v>
@@ -11515,8 +11488,8 @@
       <c r="A270" s="1">
         <v>45405</v>
       </c>
-      <c r="B270" t="s">
-        <v>2</v>
+      <c r="B270">
+        <v>201</v>
       </c>
       <c r="C270">
         <v>104</v>
@@ -11556,8 +11529,8 @@
       <c r="A271" s="1">
         <v>45405</v>
       </c>
-      <c r="B271" t="s">
-        <v>2</v>
+      <c r="B271">
+        <v>201</v>
       </c>
       <c r="C271">
         <v>204</v>
@@ -11597,8 +11570,8 @@
       <c r="A272" s="1">
         <v>45405</v>
       </c>
-      <c r="B272" t="s">
-        <v>2</v>
+      <c r="B272">
+        <v>201</v>
       </c>
       <c r="C272">
         <v>304</v>
@@ -11638,8 +11611,8 @@
       <c r="A273" s="1">
         <v>45405</v>
       </c>
-      <c r="B273" t="s">
-        <v>2</v>
+      <c r="B273">
+        <v>201</v>
       </c>
       <c r="C273">
         <v>404</v>
@@ -11679,8 +11652,8 @@
       <c r="A274" s="1">
         <v>45420</v>
       </c>
-      <c r="B274" t="s">
-        <v>1</v>
+      <c r="B274">
+        <v>216</v>
       </c>
       <c r="C274">
         <v>101</v>
@@ -11720,8 +11693,8 @@
       <c r="A275" s="1">
         <v>45420</v>
       </c>
-      <c r="B275" t="s">
-        <v>1</v>
+      <c r="B275">
+        <v>216</v>
       </c>
       <c r="C275">
         <v>201</v>
@@ -11761,8 +11734,8 @@
       <c r="A276" s="1">
         <v>45420</v>
       </c>
-      <c r="B276" t="s">
-        <v>1</v>
+      <c r="B276">
+        <v>216</v>
       </c>
       <c r="C276">
         <v>301</v>
@@ -11802,8 +11775,8 @@
       <c r="A277" s="1">
         <v>45420</v>
       </c>
-      <c r="B277" t="s">
-        <v>1</v>
+      <c r="B277">
+        <v>216</v>
       </c>
       <c r="C277">
         <v>401</v>
@@ -11843,8 +11816,8 @@
       <c r="A278" s="1">
         <v>45420</v>
       </c>
-      <c r="B278" t="s">
-        <v>1</v>
+      <c r="B278">
+        <v>216</v>
       </c>
       <c r="C278">
         <v>102</v>
@@ -11884,8 +11857,8 @@
       <c r="A279" s="1">
         <v>45420</v>
       </c>
-      <c r="B279" t="s">
-        <v>1</v>
+      <c r="B279">
+        <v>216</v>
       </c>
       <c r="C279">
         <v>202</v>
@@ -11925,8 +11898,8 @@
       <c r="A280" s="1">
         <v>45420</v>
       </c>
-      <c r="B280" t="s">
-        <v>1</v>
+      <c r="B280">
+        <v>216</v>
       </c>
       <c r="C280">
         <v>302</v>
@@ -11966,8 +11939,8 @@
       <c r="A281" s="1">
         <v>45420</v>
       </c>
-      <c r="B281" t="s">
-        <v>1</v>
+      <c r="B281">
+        <v>216</v>
       </c>
       <c r="C281">
         <v>402</v>
@@ -12007,8 +11980,8 @@
       <c r="A282" s="1">
         <v>45420</v>
       </c>
-      <c r="B282" t="s">
-        <v>1</v>
+      <c r="B282">
+        <v>216</v>
       </c>
       <c r="C282">
         <v>103</v>
@@ -12048,8 +12021,8 @@
       <c r="A283" s="1">
         <v>45420</v>
       </c>
-      <c r="B283" t="s">
-        <v>1</v>
+      <c r="B283">
+        <v>216</v>
       </c>
       <c r="C283">
         <v>203</v>
@@ -12089,8 +12062,8 @@
       <c r="A284" s="1">
         <v>45420</v>
       </c>
-      <c r="B284" t="s">
-        <v>1</v>
+      <c r="B284">
+        <v>216</v>
       </c>
       <c r="C284">
         <v>303</v>
@@ -12130,8 +12103,8 @@
       <c r="A285" s="1">
         <v>45420</v>
       </c>
-      <c r="B285" t="s">
-        <v>1</v>
+      <c r="B285">
+        <v>216</v>
       </c>
       <c r="C285">
         <v>403</v>
@@ -12171,8 +12144,8 @@
       <c r="A286" s="1">
         <v>45420</v>
       </c>
-      <c r="B286" t="s">
-        <v>1</v>
+      <c r="B286">
+        <v>216</v>
       </c>
       <c r="C286">
         <v>104</v>
@@ -12212,8 +12185,8 @@
       <c r="A287" s="1">
         <v>45420</v>
       </c>
-      <c r="B287" t="s">
-        <v>1</v>
+      <c r="B287">
+        <v>216</v>
       </c>
       <c r="C287">
         <v>204</v>
@@ -12253,8 +12226,8 @@
       <c r="A288" s="1">
         <v>45420</v>
       </c>
-      <c r="B288" t="s">
-        <v>1</v>
+      <c r="B288">
+        <v>216</v>
       </c>
       <c r="C288">
         <v>304</v>
@@ -12294,8 +12267,8 @@
       <c r="A289" s="1">
         <v>45420</v>
       </c>
-      <c r="B289" t="s">
-        <v>1</v>
+      <c r="B289">
+        <v>216</v>
       </c>
       <c r="C289">
         <v>404</v>
@@ -12335,8 +12308,8 @@
       <c r="A290" s="1">
         <v>45428</v>
       </c>
-      <c r="B290" t="s">
-        <v>0</v>
+      <c r="B290">
+        <v>224</v>
       </c>
       <c r="C290">
         <v>101</v>
@@ -12376,8 +12349,8 @@
       <c r="A291" s="1">
         <v>45428</v>
       </c>
-      <c r="B291" t="s">
-        <v>0</v>
+      <c r="B291">
+        <v>224</v>
       </c>
       <c r="C291">
         <v>201</v>
@@ -12417,8 +12390,8 @@
       <c r="A292" s="1">
         <v>45428</v>
       </c>
-      <c r="B292" t="s">
-        <v>0</v>
+      <c r="B292">
+        <v>224</v>
       </c>
       <c r="C292">
         <v>301</v>
@@ -12458,8 +12431,8 @@
       <c r="A293" s="1">
         <v>45428</v>
       </c>
-      <c r="B293" t="s">
-        <v>0</v>
+      <c r="B293">
+        <v>224</v>
       </c>
       <c r="C293">
         <v>401</v>
@@ -12499,8 +12472,8 @@
       <c r="A294" s="1">
         <v>45428</v>
       </c>
-      <c r="B294" t="s">
-        <v>0</v>
+      <c r="B294">
+        <v>224</v>
       </c>
       <c r="C294">
         <v>102</v>
@@ -12540,8 +12513,8 @@
       <c r="A295" s="1">
         <v>45428</v>
       </c>
-      <c r="B295" t="s">
-        <v>0</v>
+      <c r="B295">
+        <v>224</v>
       </c>
       <c r="C295">
         <v>202</v>
@@ -12581,8 +12554,8 @@
       <c r="A296" s="1">
         <v>45428</v>
       </c>
-      <c r="B296" t="s">
-        <v>0</v>
+      <c r="B296">
+        <v>224</v>
       </c>
       <c r="C296">
         <v>302</v>
@@ -12622,8 +12595,8 @@
       <c r="A297" s="1">
         <v>45428</v>
       </c>
-      <c r="B297" t="s">
-        <v>0</v>
+      <c r="B297">
+        <v>224</v>
       </c>
       <c r="C297">
         <v>402</v>
@@ -12663,8 +12636,8 @@
       <c r="A298" s="1">
         <v>45428</v>
       </c>
-      <c r="B298" t="s">
-        <v>0</v>
+      <c r="B298">
+        <v>224</v>
       </c>
       <c r="C298">
         <v>103</v>
@@ -12704,8 +12677,8 @@
       <c r="A299" s="1">
         <v>45428</v>
       </c>
-      <c r="B299" t="s">
-        <v>0</v>
+      <c r="B299">
+        <v>224</v>
       </c>
       <c r="C299">
         <v>203</v>
@@ -12745,8 +12718,8 @@
       <c r="A300" s="1">
         <v>45428</v>
       </c>
-      <c r="B300" t="s">
-        <v>0</v>
+      <c r="B300">
+        <v>224</v>
       </c>
       <c r="C300">
         <v>303</v>
@@ -12786,8 +12759,8 @@
       <c r="A301" s="1">
         <v>45428</v>
       </c>
-      <c r="B301" t="s">
-        <v>0</v>
+      <c r="B301">
+        <v>224</v>
       </c>
       <c r="C301">
         <v>403</v>
@@ -12827,8 +12800,8 @@
       <c r="A302" s="1">
         <v>45428</v>
       </c>
-      <c r="B302" t="s">
-        <v>0</v>
+      <c r="B302">
+        <v>224</v>
       </c>
       <c r="C302">
         <v>104</v>
@@ -12868,8 +12841,8 @@
       <c r="A303" s="1">
         <v>45428</v>
       </c>
-      <c r="B303" t="s">
-        <v>0</v>
+      <c r="B303">
+        <v>224</v>
       </c>
       <c r="C303">
         <v>204</v>
@@ -12909,8 +12882,8 @@
       <c r="A304" s="1">
         <v>45428</v>
       </c>
-      <c r="B304" t="s">
-        <v>0</v>
+      <c r="B304">
+        <v>224</v>
       </c>
       <c r="C304">
         <v>304</v>
@@ -12950,8 +12923,8 @@
       <c r="A305" s="1">
         <v>45428</v>
       </c>
-      <c r="B305" t="s">
-        <v>0</v>
+      <c r="B305">
+        <v>224</v>
       </c>
       <c r="C305">
         <v>404</v>
